--- a/documents/swm数据字典=2017-12-06.xlsx
+++ b/documents/swm数据字典=2017-12-06.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3192" windowWidth="22944" windowHeight="9900" tabRatio="790"/>
+    <workbookView xWindow="0" yWindow="3648" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户表user" sheetId="1" r:id="rId1"/>
-    <sheet name="学生信息表stuInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="学生信息表student_information" sheetId="2" r:id="rId2"/>
     <sheet name="洗衣机表washmachine" sheetId="4" r:id="rId3"/>
     <sheet name="现金交易表moneytransaction" sheetId="5" r:id="rId4"/>
     <sheet name="积分交易表transaction2" sheetId="6" state="hidden" r:id="rId5"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="100">
   <si>
     <t>字段名</t>
   </si>
@@ -87,9 +87,6 @@
     <t>积分</t>
   </si>
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
     <t>性别</t>
   </si>
   <si>
@@ -117,10 +114,6 @@
     <t>兑换产品</t>
   </si>
   <si>
-    <t>学号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -142,10 +135,6 @@
   </si>
   <si>
     <t>信用分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIQUE，FK_user(id)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -261,10 +250,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>gender</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -308,23 +293,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>student_number</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>dormitory_building_number</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>balance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>credit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>integral</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -419,10 +392,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(1)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -590,6 +559,10 @@
   </si>
   <si>
     <t>role</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>integral</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1025,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1046,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -1082,18 +1055,18 @@
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -1102,7 +1075,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -1115,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1165,115 +1138,90 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>75</v>
+      <c r="A3" t="s">
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
+      <c r="A4" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
+      <c r="A5" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1236,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1319,7 +1267,7 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -1331,18 +1279,18 @@
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1350,13 +1298,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1364,19 +1312,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1439,74 +1387,74 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1584,13 +1532,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -1653,7 +1601,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1670,74 +1618,74 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1800,18 +1748,18 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -1824,24 +1772,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/documents/swm数据字典=2017-12-06.xlsx
+++ b/documents/swm数据字典=2017-12-06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3648" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4104" windowWidth="22944" windowHeight="9900" tabRatio="790"/>
   </bookViews>
   <sheets>
     <sheet name="用户表user" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
   <si>
     <t>字段名</t>
   </si>
@@ -72,12 +72,6 @@
     <t>NOT NULL</t>
   </si>
   <si>
-    <t>varchar(60)</t>
-  </si>
-  <si>
-    <t>头像</t>
-  </si>
-  <si>
     <t>用户类型</t>
   </si>
   <si>
@@ -115,10 +109,6 @@
   </si>
   <si>
     <t>NOT NULL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有一张默认头像（默认值）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -243,10 +233,6 @@
   </si>
   <si>
     <t>交易积分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatar</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -996,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1046,38 +1032,21 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="G3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1090,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1139,89 +1108,89 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1236,7 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -1279,18 +1248,18 @@
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1298,13 +1267,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1312,19 +1281,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1387,74 +1356,74 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1532,13 +1501,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -1547,13 +1516,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1601,7 +1570,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1618,74 +1587,74 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1748,18 +1717,18 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -1772,24 +1741,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/documents/swm数据字典=2017-12-06.xlsx
+++ b/documents/swm数据字典=2017-12-06.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4104" windowWidth="22944" windowHeight="9900" tabRatio="790"/>
+    <workbookView xWindow="0" yWindow="4560" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户表user" sheetId="1" r:id="rId1"/>
     <sheet name="学生信息表student_information" sheetId="2" r:id="rId2"/>
-    <sheet name="洗衣机表washmachine" sheetId="4" r:id="rId3"/>
-    <sheet name="现金交易表moneytransaction" sheetId="5" r:id="rId4"/>
-    <sheet name="积分交易表transaction2" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="积分交易表integraltransaction" sheetId="8" r:id="rId6"/>
-    <sheet name="预约队列表queue" sheetId="7" r:id="rId7"/>
+    <sheet name="维修管理员信息表repair_information" sheetId="9" r:id="rId3"/>
+    <sheet name="洗衣机表washmachine" sheetId="4" r:id="rId4"/>
+    <sheet name="现金交易表moneytransaction" sheetId="5" r:id="rId5"/>
+    <sheet name="积分交易表transaction2" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="积分交易表integraltransaction" sheetId="8" r:id="rId7"/>
+    <sheet name="预约队列表queue" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
   <si>
     <t>字段名</t>
   </si>
@@ -984,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1060,7 +1061,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1201,6 +1202,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="A5:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1303,7 +1386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1433,7 +1516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1534,7 +1617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1664,7 +1747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>

--- a/documents/swm数据字典=2017-12-06.xlsx
+++ b/documents/swm数据字典=2017-12-06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4560" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="5016" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户表user" sheetId="1" r:id="rId1"/>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>state</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -285,14 +281,6 @@
   </si>
   <si>
     <t>credit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>machine_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -550,6 +538,18 @@
   </si>
   <si>
     <t>integral</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1033,10 +1033,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -1045,7 +1045,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -1112,18 +1112,18 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -1205,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="A5:E8"/>
     </sheetView>
   </sheetViews>
@@ -1257,18 +1257,18 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -1287,13 +1287,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1376,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -1486,16 +1486,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>48</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>53</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,7 +1800,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -1824,24 +1824,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/documents/swm数据字典=2017-12-06.xlsx
+++ b/documents/swm数据字典=2017-12-06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5016" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="5472" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户表user" sheetId="1" r:id="rId1"/>
@@ -545,11 +545,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>state</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>machine_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>86</v>

--- a/documents/swm数据字典=2017-12-06.xlsx
+++ b/documents/swm数据字典=2017-12-06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5472" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="5928" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户表user" sheetId="1" r:id="rId1"/>
@@ -276,10 +276,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>dormitory_building_number</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>credit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -550,6 +546,10 @@
   </si>
   <si>
     <t>machine_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormitory_building_number</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1033,10 +1033,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -1045,7 +1045,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -1112,13 +1112,13 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -1257,13 +1257,13 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1376,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -1486,16 +1486,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>48</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,7 +1800,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="6" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>

--- a/documents/swm数据字典=2017-12-06.xlsx
+++ b/documents/swm数据字典=2017-12-06.xlsx
@@ -9,24 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5928" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="7296" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="用户表user" sheetId="1" r:id="rId1"/>
-    <sheet name="学生信息表student_information" sheetId="2" r:id="rId2"/>
-    <sheet name="维修管理员信息表repair_information" sheetId="9" r:id="rId3"/>
-    <sheet name="洗衣机表washmachine" sheetId="4" r:id="rId4"/>
-    <sheet name="现金交易表moneytransaction" sheetId="5" r:id="rId5"/>
-    <sheet name="积分交易表transaction2" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="积分交易表integraltransaction" sheetId="8" r:id="rId7"/>
-    <sheet name="预约队列表queue" sheetId="7" r:id="rId8"/>
+    <sheet name="学生信息表student_information" sheetId="2" r:id="rId1"/>
+    <sheet name="维修管理员信息表repair_information" sheetId="9" r:id="rId2"/>
+    <sheet name="洗衣机表washmachine" sheetId="4" r:id="rId3"/>
+    <sheet name="预约表appointment" sheetId="7" r:id="rId4"/>
+    <sheet name="现金表money" sheetId="5" r:id="rId5"/>
+    <sheet name="报修表repairment" sheetId="10" r:id="rId6"/>
+    <sheet name="积分交易表transaction2" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
   <si>
     <t>字段名</t>
   </si>
@@ -73,9 +72,6 @@
     <t>NOT NULL</t>
   </si>
   <si>
-    <t>用户类型</t>
-  </si>
-  <si>
     <t>integral</t>
   </si>
   <si>
@@ -130,10 +126,6 @@
   </si>
   <si>
     <t>默认100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -149,18 +141,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>积分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>交易用户</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -193,10 +173,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>FK_user(id)</t>
   </si>
   <si>
@@ -212,31 +188,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分余额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易积分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>gender</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -249,10 +200,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>balance</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -284,35 +231,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>trading_account</t>
+    <t>transaction_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trading_amount</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>transaction_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>transaction_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>balance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trading_amount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>transaction_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>transaction_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trading_integral</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -359,10 +290,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A-超级管理员；U-用户；R-维修</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(1)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -395,7 +322,7 @@
   </si>
   <si>
     <r>
-      <t>F-空闲、</t>
+      <t>v</t>
     </r>
     <r>
       <rPr>
@@ -406,7 +333,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>W</t>
+      <t>archar(1)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R-充值，P</t>
     </r>
     <r>
       <rPr>
@@ -416,7 +353,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-工作中、</t>
+      <t>-支付，</t>
     </r>
     <r>
       <rPr>
@@ -437,6 +374,59 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>-返现</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormitory_building_number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F-空闲、W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-工作中、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>-故障、</t>
     </r>
     <r>
@@ -458,86 +448,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-待清洁</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>archar(1)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R-充值，P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-支付，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-返现</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>R-加分，P-支付，B-返分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>integral</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
+      <t>-待清洁、A-预约中</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约账号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -545,11 +461,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>machine_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dormitory_building_number</t>
+    <t>vaechar(1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-预约中、E-已完成、C-已取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修账号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-报修中、E-已完成、C-已取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(300)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -641,9 +581,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -983,85 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="53.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:E8"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1109,89 +971,72 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1201,12 +1046,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A5:E8"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1254,27 +1099,27 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1283,12 +1128,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1142,7 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1318,8 +1163,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>58</v>
+      <c r="A2" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -1331,32 +1176,32 @@
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>95</v>
+      <c r="A4" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1364,25 +1209,142 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>84</v>
+      <c r="E5" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
@@ -1438,75 +1400,75 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>67</v>
+      <c r="A3" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C8" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1517,6 +1479,114 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1584,13 +1654,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -1599,249 +1669,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/documents/swm数据字典=2017-12-06.xlsx
+++ b/documents/swm数据字典=2017-12-06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7296" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="7752" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="学生信息表student_information" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
   <si>
     <t>字段名</t>
   </si>
@@ -174,14 +174,6 @@
   </si>
   <si>
     <t>FK_user(id)</t>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(300)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -490,6 +482,14 @@
   </si>
   <si>
     <t>varchar(300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -971,21 +971,21 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1019,12 +1019,12 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -1099,21 +1099,21 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -1221,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1295,51 +1295,51 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
         <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1350,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1448,27 +1448,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1482,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1520,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1542,42 +1531,42 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/documents/swm数据字典=2017-12-06.xlsx
+++ b/documents/swm数据字典=2017-12-06.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7752" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="8664" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="学生信息表student_information" sheetId="2" r:id="rId1"/>
     <sheet name="维修管理员信息表repair_information" sheetId="9" r:id="rId2"/>
     <sheet name="洗衣机表washmachine" sheetId="4" r:id="rId3"/>
     <sheet name="预约表appointment" sheetId="7" r:id="rId4"/>
-    <sheet name="现金表money" sheetId="5" r:id="rId5"/>
-    <sheet name="报修表repairment" sheetId="10" r:id="rId6"/>
+    <sheet name="报修表repairment" sheetId="10" r:id="rId5"/>
+    <sheet name="现金表money" sheetId="5" r:id="rId6"/>
     <sheet name="积分交易表transaction2" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="89">
   <si>
     <t>字段名</t>
   </si>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>balance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -216,26 +212,6 @@
   </si>
   <si>
     <t>credit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trading_account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>transaction_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>balance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trading_amount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>transaction_type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -274,10 +250,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>start_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(1)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -379,10 +351,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>machine_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>dormitory_building_number</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -477,19 +445,59 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>varchar(300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>remarks</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(300)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>machine_id</t>
+    <t>trading_account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trading_amount</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -923,7 +931,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -974,18 +982,18 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -996,7 +1004,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -1007,7 +1015,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1024,7 +1032,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -1102,18 +1110,18 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -1133,7 +1141,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1181,10 +1189,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1195,7 +1203,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -1209,10 +1217,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -1221,7 +1229,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1244,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1292,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1295,51 +1303,51 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1352,8 +1360,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1401,7 +1529,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -1415,7 +1543,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -1426,7 +1554,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1437,7 +1565,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1448,130 +1576,22 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/documents/swm数据字典=2017-12-06.xlsx
+++ b/documents/swm数据字典=2017-12-06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8664" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="8664" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="学生信息表student_information" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
   <si>
     <t>字段名</t>
   </si>
@@ -461,10 +461,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>machine_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -477,27 +473,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>remarks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trading_account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trading_amount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>repair_time</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>remarks</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trading_account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>transaction_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>transaction_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trading_amount</t>
+    <t>repair_account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete_account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修账号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +525,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +569,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -570,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -596,6 +625,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,7 +1221,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>63</v>
@@ -1316,7 +1348,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -1358,15 +1390,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -1374,8 +1406,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1419,53 +1451,77 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>73</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1480,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1529,7 +1585,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -1543,7 +1599,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -1554,7 +1610,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1576,7 +1632,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>61</v>

--- a/documents/swm数据字典=2017-12-06.xlsx
+++ b/documents/swm数据字典=2017-12-06.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8664" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="9120" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="学生信息表student_information" sheetId="2" r:id="rId1"/>
     <sheet name="维修管理员信息表repair_information" sheetId="9" r:id="rId2"/>
     <sheet name="洗衣机表washmachine" sheetId="4" r:id="rId3"/>
     <sheet name="预约表appointment" sheetId="7" r:id="rId4"/>
-    <sheet name="报修表repairment" sheetId="10" r:id="rId5"/>
+    <sheet name="异常处理表repairment" sheetId="10" r:id="rId5"/>
     <sheet name="现金表money" sheetId="5" r:id="rId6"/>
     <sheet name="积分交易表transaction2" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
@@ -433,18 +433,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>报修账号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>报修状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R-报修中、E-已完成、C-已取消</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(300)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -469,10 +457,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>报修时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>remarks</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -497,27 +481,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>字段名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>repair_account</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>字段名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>complete_account</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>complete_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修账号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修时间</t>
+    <t>提交异常账号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交异常时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理异常账号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理异常时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常处理状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-待修理、W-待清洗、E-已完成、C-已取消</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>63</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -1373,7 +1373,7 @@
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1393,7 +1393,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1407,7 +1407,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1452,58 +1452,58 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>81</v>
+      <c r="C5" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>44</v>
@@ -1519,10 +1519,10 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>61</v>

--- a/documents/swm数据字典=2017-12-06.xlsx
+++ b/documents/swm数据字典=2017-12-06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9120" windowWidth="22944" windowHeight="9900" tabRatio="790" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="9576" windowWidth="22944" windowHeight="9900" tabRatio="790" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="学生信息表student_information" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="97">
   <si>
     <t>字段名</t>
   </si>
@@ -212,10 +212,6 @@
   </si>
   <si>
     <t>credit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>account</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -429,10 +425,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A-预约中、E-已完成、C-已取消</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(300)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -441,18 +433,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>balance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>machine_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>balance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>machine_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>start_time</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -518,6 +506,30 @@
   </si>
   <si>
     <t>R-待修理、W-待清洗、E-已完成、C-已取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-预约中、E-已完成、C-已取消、O-已过期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作起始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用账号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1014,13 +1026,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1047,7 +1059,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1142,13 +1154,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,17 +1182,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
   </cols>
@@ -1221,10 +1233,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1235,7 +1247,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -1248,20 +1260,53 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>66</v>
+      <c r="E8" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1321,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1330,7 @@
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,7 +1369,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1335,20 +1380,20 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -1359,7 +1404,7 @@
     </row>
     <row r="6" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
@@ -1370,16 +1415,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1392,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1407,7 +1452,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1441,7 +1486,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1452,58 +1497,58 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>44</v>
@@ -1513,16 +1558,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1630,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -1599,7 +1644,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -1610,7 +1655,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1621,7 +1666,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1632,16 +1677,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
